--- a/biology/Botanique/Limodore_à_feuilles_avortées/Limodore_à_feuilles_avortées.xlsx
+++ b/biology/Botanique/Limodore_à_feuilles_avortées/Limodore_à_feuilles_avortées.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Limodore_%C3%A0_feuilles_avort%C3%A9es</t>
+          <t>Limodore_à_feuilles_avortées</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Limodorum abortivum
 Le Limodore à feuilles avortées (Limodorum abortivum) est une espèce d'orchidée terrestre européenne et nord-africaine.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Limodore_%C3%A0_feuilles_avort%C3%A9es</t>
+          <t>Limodore_à_feuilles_avortées</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante robuste pouvant atteindre 80 cm de haut, à tige bleue, violacée ou brunâtre, à feuilles écailleuses bractéiformes. Les bractées sont identiques, un peu plus longues que l'ovaire; les fleurs en inflorescence lâche ne s'ouvrent guère. Le labelle est articulé et présente, vers l'arrière, un hypochile concave et, vers l'avant, un épichile cordiforme à bord crénelé. Il existe un éperon nectarifère orienté vers le bas aussi long que l'ovaire.
 C'est une plante saprophyte comme la néottie nid d'oiseau (voir découvertes récentes chez cette espèce, autre Orchidacée vivant sans chlorophylle).
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Limodore_%C3%A0_feuilles_avort%C3%A9es</t>
+          <t>Limodore_à_feuilles_avortées</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Floraison</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">D'avril à juillet, sporadique (peut passer plusieurs années sans se manifester).
 </t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Limodore_%C3%A0_feuilles_avort%C3%A9es</t>
+          <t>Limodore_à_feuilles_avortées</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante de mi-ombre, sur substrat frais, de préférence calcaire, broussailles et prébois thermophiles.
 </t>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Limodore_%C3%A0_feuilles_avort%C3%A9es</t>
+          <t>Limodore_à_feuilles_avortées</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,9 +624,11 @@
           <t>Aire de répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plante méditerranéo-atlantique, sa  limite nord est la Belgique où elle est très rare[1] ; à l'est sa limite est le Caucase. Localisée et parfois assez abondante au sud, elle est localisée et très rare au nord : dans la Haute-Saône par exemple, elle est uniquement connue dans deux stations.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante méditerranéo-atlantique, sa  limite nord est la Belgique où elle est très rare ; à l'est sa limite est le Caucase. Localisée et parfois assez abondante au sud, elle est localisée et très rare au nord : dans la Haute-Saône par exemple, elle est uniquement connue dans deux stations.
 </t>
         </is>
       </c>
@@ -619,7 +639,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Limodore_%C3%A0_feuilles_avort%C3%A9es</t>
+          <t>Limodore_à_feuilles_avortées</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -637,9 +657,11 @@
           <t>Vulnérabilité</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En France, l'espèce est classée "LC" : Préoccupation mineure[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, l'espèce est classée "LC" : Préoccupation mineure.
 </t>
         </is>
       </c>
@@ -650,7 +672,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Limodore_%C3%A0_feuilles_avort%C3%A9es</t>
+          <t>Limodore_à_feuilles_avortées</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -668,7 +690,9 @@
           <t>Protection</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">En France, l'espèce est protégée en Bourgogne, dans le Centre, en Franche-Comté, dans le Limousin, en Lorraine, dans le Nord-Pas-de-Calais, en Pays de la Loire, et en Picardie.
 En Belgique, l'espèce est protégée.
